--- a/Original Files/QLearning Step-by-step.xlsx
+++ b/Original Files/QLearning Step-by-step.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katy\Desktop\james\job\github repos\CS7646_Teaching_Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katy\Desktop\james\job\github repos\CS7646_Teaching_Material\Original Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF2A16-AAFA-4436-8D07-AD07CD9A7D45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DC70E6-F7D9-49D4-B8C4-0117D354CA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,6 +633,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,11 +648,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,8 +936,8 @@
   </sheetPr>
   <dimension ref="B1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -971,10 +974,10 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28"/>
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25"/>
       <c r="E3" s="20" t="s">
         <v>31</v>
       </c>
@@ -988,13 +991,13 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="2:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
@@ -1042,10 +1045,10 @@
       </c>
     </row>
     <row r="7" spans="2:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28"/>
+      <c r="B7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1061,10 +1064,10 @@
       <c r="J7" s="13">
         <v>0</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28"/>
+      <c r="L7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="2:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1174,13 +1177,13 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="2:28" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1238,10 +1241,10 @@
       <c r="J16" s="13">
         <v>0</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="28"/>
+      <c r="L16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="4:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
@@ -1305,13 +1308,13 @@
       </c>
     </row>
     <row r="22" spans="4:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="4:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="8"/>
@@ -1368,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="28"/>
+      <c r="L25" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="8" t="s">
@@ -1434,13 +1437,13 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="8"/>
@@ -1493,10 +1496,10 @@
       <c r="J34" s="13">
         <v>0</v>
       </c>
-      <c r="L34" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="28"/>
+      <c r="L34" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="8" t="s">
@@ -1559,13 +1562,13 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
       <c r="M40" s="2" t="s">
         <v>21</v>
       </c>
@@ -1621,10 +1624,10 @@
       <c r="J43" s="13">
         <v>0</v>
       </c>
-      <c r="L43" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="28"/>
+      <c r="L43" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="8" t="s">
@@ -1682,17 +1685,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="24" t="s">
+    <row r="49" spans="5:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="8"/>
       <c r="G50" s="10" t="s">
         <v>13</v>
@@ -1707,7 +1710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="5:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" s="8" t="s">
         <v>5</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="5:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F52" s="8" t="s">
         <v>6</v>
       </c>
@@ -1743,12 +1746,12 @@
       <c r="J52" s="13">
         <v>-30</v>
       </c>
-      <c r="L52" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="28"/>
-    </row>
-    <row r="53" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="25"/>
+    </row>
+    <row r="53" spans="5:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="8" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="5:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F54" s="9" t="s">
         <v>8</v>
       </c>
@@ -1794,18 +1797,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="2" t="s">
+    <row r="55" spans="5:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="29" t="s">
         <v>36</v>
       </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="F13:J13"/>
+  <mergeCells count="15">
+    <mergeCell ref="E55:W55"/>
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="F31:J31"/>
     <mergeCell ref="B7:C7"/>
@@ -1815,8 +1832,13 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="F40:J40"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="F13:J13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>